--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb1-Ephb6.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H2">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J2">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N2">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O2">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P2">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q2">
-        <v>1.251844299475</v>
+        <v>1.047098801889333</v>
       </c>
       <c r="R2">
-        <v>11.266598695275</v>
+        <v>9.423889217004</v>
       </c>
       <c r="S2">
-        <v>0.04082436464526112</v>
+        <v>0.06119005550618289</v>
       </c>
       <c r="T2">
-        <v>0.0408243646452611</v>
+        <v>0.0611900555061829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H3">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J3">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.288128</v>
       </c>
       <c r="O3">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P3">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q3">
-        <v>3.21372693152</v>
+        <v>3.049631876224</v>
       </c>
       <c r="R3">
-        <v>28.92354238368</v>
+        <v>27.446686886016</v>
       </c>
       <c r="S3">
-        <v>0.1048040560457005</v>
+        <v>0.1782135013838871</v>
       </c>
       <c r="T3">
-        <v>0.1048040560457005</v>
+        <v>0.1782135013838871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H4">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J4">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N4">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O4">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P4">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q4">
-        <v>0.20964490645</v>
+        <v>0.1264429771306667</v>
       </c>
       <c r="R4">
-        <v>1.88680415805</v>
+        <v>1.137986794176</v>
       </c>
       <c r="S4">
-        <v>0.006836808787263541</v>
+        <v>0.007389037954233307</v>
       </c>
       <c r="T4">
-        <v>0.006836808787263541</v>
+        <v>0.00738903795423331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.484645</v>
+        <v>7.102474</v>
       </c>
       <c r="H5">
-        <v>22.453935</v>
+        <v>21.307422</v>
       </c>
       <c r="I5">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723766</v>
       </c>
       <c r="J5">
-        <v>0.3833353856819432</v>
+        <v>0.3851819652723767</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N5">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O5">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P5">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q5">
-        <v>7.079436299226667</v>
+        <v>2.368151863415333</v>
       </c>
       <c r="R5">
-        <v>63.71492669304001</v>
+        <v>21.313366770738</v>
       </c>
       <c r="S5">
-        <v>0.2308701562037181</v>
+        <v>0.1383893704280733</v>
       </c>
       <c r="T5">
-        <v>0.2308701562037181</v>
+        <v>0.1383893704280733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H6">
         <v>24.89943</v>
       </c>
       <c r="I6">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J6">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N6">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O6">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P6">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q6">
-        <v>1.38818472155</v>
+        <v>1.223618855473333</v>
       </c>
       <c r="R6">
-        <v>12.49366249395</v>
+        <v>11.01256969926</v>
       </c>
       <c r="S6">
-        <v>0.04527061335926882</v>
+        <v>0.07150548310219396</v>
       </c>
       <c r="T6">
-        <v>0.04527061335926882</v>
+        <v>0.07150548310219397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H7">
         <v>24.89943</v>
       </c>
       <c r="I7">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J7">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,22 +877,22 @@
         <v>1.288128</v>
       </c>
       <c r="O7">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P7">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q7">
-        <v>3.563739218559999</v>
+        <v>3.56373921856</v>
       </c>
       <c r="R7">
         <v>32.07365296704</v>
       </c>
       <c r="S7">
-        <v>0.1162184382036376</v>
+        <v>0.2082567568597928</v>
       </c>
       <c r="T7">
-        <v>0.1162184382036376</v>
+        <v>0.2082567568597929</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H8">
         <v>24.89943</v>
       </c>
       <c r="I8">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J8">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N8">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O8">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P8">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q8">
-        <v>0.2324776780999999</v>
+        <v>0.1477587508266667</v>
       </c>
       <c r="R8">
-        <v>2.0922991029</v>
+        <v>1.32982875744</v>
       </c>
       <c r="S8">
-        <v>0.007581416879573821</v>
+        <v>0.008634682943284995</v>
       </c>
       <c r="T8">
-        <v>0.007581416879573821</v>
+        <v>0.008634682943284998</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.299809999999999</v>
+        <v>8.299810000000001</v>
       </c>
       <c r="H9">
         <v>24.89943</v>
       </c>
       <c r="I9">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808667</v>
       </c>
       <c r="J9">
-        <v>0.4250850731647057</v>
+        <v>0.4501159915808668</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N9">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O9">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P9">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q9">
-        <v>7.850469353013333</v>
+        <v>2.767375215663333</v>
       </c>
       <c r="R9">
-        <v>70.65422417712</v>
+        <v>24.90637694097</v>
       </c>
       <c r="S9">
-        <v>0.2560146047222254</v>
+        <v>0.1617190686755949</v>
       </c>
       <c r="T9">
-        <v>0.2560146047222254</v>
+        <v>0.1617190686755949</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H10">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I10">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J10">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N10">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O10">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P10">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q10">
-        <v>0.08250973483500001</v>
+        <v>0.03767643102177777</v>
       </c>
       <c r="R10">
-        <v>0.742587613515</v>
+        <v>0.339087879196</v>
       </c>
       <c r="S10">
-        <v>0.002690755953516336</v>
+        <v>0.002201724327577934</v>
       </c>
       <c r="T10">
-        <v>0.002690755953516335</v>
+        <v>0.002201724327577935</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H11">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I11">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J11">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>1.288128</v>
       </c>
       <c r="O11">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P11">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q11">
-        <v>0.211818480192</v>
+        <v>0.1097310443093333</v>
       </c>
       <c r="R11">
-        <v>1.906366321728</v>
+        <v>0.9875793987839999</v>
       </c>
       <c r="S11">
-        <v>0.006907692016962304</v>
+        <v>0.006412430880375663</v>
       </c>
       <c r="T11">
-        <v>0.006907692016962302</v>
+        <v>0.006412430880375666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H12">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I12">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J12">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N12">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O12">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P12">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q12">
-        <v>0.01381780917</v>
+        <v>0.004549637624888888</v>
       </c>
       <c r="R12">
-        <v>0.12436028253</v>
+        <v>0.04094673862399999</v>
       </c>
       <c r="S12">
-        <v>0.0004506177648380769</v>
+        <v>0.000265870401434565</v>
       </c>
       <c r="T12">
-        <v>0.0004506177648380769</v>
+        <v>0.0002658704014345652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.493317</v>
+        <v>0.2555593333333333</v>
       </c>
       <c r="H13">
-        <v>1.479951</v>
+        <v>0.766678</v>
       </c>
       <c r="I13">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541732</v>
       </c>
       <c r="J13">
-        <v>0.02526584259620318</v>
+        <v>0.01385951518541733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N13">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O13">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P13">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q13">
-        <v>0.466609475376</v>
+        <v>0.08521021146244444</v>
       </c>
       <c r="R13">
-        <v>4.199485278384</v>
+        <v>0.766891903162</v>
       </c>
       <c r="S13">
-        <v>0.01521677686088646</v>
+        <v>0.004979489576029159</v>
       </c>
       <c r="T13">
-        <v>0.01521677686088646</v>
+        <v>0.00497948957602916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H14">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I14">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J14">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N14">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O14">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P14">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q14">
-        <v>0.34155511511</v>
+        <v>0.2053140369148889</v>
       </c>
       <c r="R14">
-        <v>3.07399603599</v>
+        <v>1.847826332234</v>
       </c>
       <c r="S14">
-        <v>0.01113858214759817</v>
+        <v>0.01199808202659783</v>
       </c>
       <c r="T14">
-        <v>0.01113858214759817</v>
+        <v>0.01199808202659784</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H15">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I15">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J15">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.288128</v>
       </c>
       <c r="O15">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P15">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q15">
-        <v>0.8768381758719997</v>
+        <v>0.5979686257706667</v>
       </c>
       <c r="R15">
-        <v>7.891543582847999</v>
+        <v>5.381717631936</v>
       </c>
       <c r="S15">
-        <v>0.02859489909543578</v>
+        <v>0.03494391678783539</v>
       </c>
       <c r="T15">
-        <v>0.02859489909543577</v>
+        <v>0.0349439167878354</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H16">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I16">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J16">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N16">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O16">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P16">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q16">
-        <v>0.05719983721999998</v>
+        <v>0.02479280658844444</v>
       </c>
       <c r="R16">
-        <v>0.5147985349799998</v>
+        <v>0.223135259296</v>
       </c>
       <c r="S16">
-        <v>0.001865365375948251</v>
+        <v>0.001448834826822111</v>
       </c>
       <c r="T16">
-        <v>0.001865365375948251</v>
+        <v>0.001448834826822112</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.042122</v>
+        <v>1.392645666666667</v>
       </c>
       <c r="H17">
-        <v>6.126365999999999</v>
+        <v>4.177937</v>
       </c>
       <c r="I17">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132563</v>
       </c>
       <c r="J17">
-        <v>0.1045898134753994</v>
+        <v>0.07552607652132566</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N17">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O17">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P17">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q17">
-        <v>1.931564237749333</v>
+        <v>0.4643447382692222</v>
       </c>
       <c r="R17">
-        <v>17.384078139744</v>
+        <v>4.179102644423</v>
       </c>
       <c r="S17">
-        <v>0.06299096685641724</v>
+        <v>0.0271352428800703</v>
       </c>
       <c r="T17">
-        <v>0.06299096685641725</v>
+        <v>0.02713524288007031</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9279860000000001</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H18">
-        <v>2.783958</v>
+        <v>3.419914</v>
       </c>
       <c r="I18">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J18">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N18">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O18">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P18">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q18">
-        <v>0.15521029843</v>
+        <v>0.1680629337497778</v>
       </c>
       <c r="R18">
-        <v>1.39689268587</v>
+        <v>1.512566403748</v>
       </c>
       <c r="S18">
-        <v>0.005061621339381798</v>
+        <v>0.009821212884710875</v>
       </c>
       <c r="T18">
-        <v>0.005061621339381797</v>
+        <v>0.009821212884710879</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9279860000000001</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H19">
-        <v>2.783958</v>
+        <v>3.419914</v>
       </c>
       <c r="I19">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J19">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>1.288128</v>
       </c>
       <c r="O19">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P19">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q19">
-        <v>0.398454916736</v>
+        <v>0.4894763312213334</v>
       </c>
       <c r="R19">
-        <v>3.586094250624</v>
+        <v>4.405286980992</v>
       </c>
       <c r="S19">
-        <v>0.01299416295009655</v>
+        <v>0.02860387560596373</v>
       </c>
       <c r="T19">
-        <v>0.01299416295009655</v>
+        <v>0.02860387560596374</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9279860000000001</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H20">
-        <v>2.783958</v>
+        <v>3.419914</v>
       </c>
       <c r="I20">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J20">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N20">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O20">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P20">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q20">
-        <v>0.02599288786</v>
+        <v>0.02029452965688889</v>
       </c>
       <c r="R20">
-        <v>0.23393599074</v>
+        <v>0.182650766912</v>
       </c>
       <c r="S20">
-        <v>0.0008476638289802047</v>
+        <v>0.001185965826659548</v>
       </c>
       <c r="T20">
-        <v>0.0008476638289802047</v>
+        <v>0.001185965826659549</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9279860000000001</v>
+        <v>1.139971333333333</v>
       </c>
       <c r="H21">
-        <v>2.783958</v>
+        <v>3.419914</v>
       </c>
       <c r="I21">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771886</v>
       </c>
       <c r="J21">
-        <v>0.04752795506232343</v>
+        <v>0.06182302089771888</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N21">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O21">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P21">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q21">
-        <v>0.8777460752746667</v>
+        <v>0.3800964617784445</v>
       </c>
       <c r="R21">
-        <v>7.899714677472001</v>
+        <v>3.420868156006</v>
       </c>
       <c r="S21">
-        <v>0.02862450694386487</v>
+        <v>0.02221196658038471</v>
       </c>
       <c r="T21">
-        <v>0.02862450694386487</v>
+        <v>0.02221196658038472</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.2771763333333333</v>
+        <v>0.248809</v>
       </c>
       <c r="H22">
-        <v>0.831529</v>
+        <v>0.746427</v>
       </c>
       <c r="I22">
-        <v>0.01419593001942513</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J22">
-        <v>0.01419593001942513</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.167255</v>
+        <v>0.1474273333333333</v>
       </c>
       <c r="N22">
-        <v>0.501765</v>
+        <v>0.442282</v>
       </c>
       <c r="O22">
-        <v>0.1064977723687984</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="P22">
-        <v>0.1064977723687983</v>
+        <v>0.1588601259223368</v>
       </c>
       <c r="Q22">
-        <v>0.04635912763166666</v>
+        <v>0.03668124737933333</v>
       </c>
       <c r="R22">
-        <v>0.417232148685</v>
+        <v>0.330131226414</v>
       </c>
       <c r="S22">
-        <v>0.001511834923772129</v>
+        <v>0.002143568075073257</v>
       </c>
       <c r="T22">
-        <v>0.001511834923772128</v>
+        <v>0.002143568075073258</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.2771763333333333</v>
+        <v>0.248809</v>
       </c>
       <c r="H23">
-        <v>0.831529</v>
+        <v>0.746427</v>
       </c>
       <c r="I23">
-        <v>0.01419593001942513</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J23">
-        <v>0.01419593001942513</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>1.288128</v>
       </c>
       <c r="O23">
-        <v>0.2734004215636314</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="P23">
-        <v>0.2734004215636313</v>
+        <v>0.4626735347223893</v>
       </c>
       <c r="Q23">
-        <v>0.1190128653013333</v>
+        <v>0.106832613184</v>
       </c>
       <c r="R23">
-        <v>1.071115787712</v>
+        <v>0.9614935186559999</v>
       </c>
       <c r="S23">
-        <v>0.003881173251798639</v>
+        <v>0.006243053204534583</v>
       </c>
       <c r="T23">
-        <v>0.003881173251798638</v>
+        <v>0.006243053204534585</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.2771763333333333</v>
+        <v>0.248809</v>
       </c>
       <c r="H24">
-        <v>0.831529</v>
+        <v>0.746427</v>
       </c>
       <c r="I24">
-        <v>0.01419593001942513</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J24">
-        <v>0.01419593001942513</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,28 +1925,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.02801</v>
+        <v>0.01780266666666666</v>
       </c>
       <c r="N24">
-        <v>0.08402999999999999</v>
+        <v>0.053408</v>
       </c>
       <c r="O24">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="P24">
-        <v>0.01783505787001908</v>
+        <v>0.01918323966442261</v>
       </c>
       <c r="Q24">
-        <v>0.007763709096666665</v>
+        <v>0.004429463690666666</v>
       </c>
       <c r="R24">
-        <v>0.06987338186999999</v>
+        <v>0.03986517321599999</v>
       </c>
       <c r="S24">
-        <v>0.0002531852334151882</v>
+        <v>0.0002588477119880812</v>
       </c>
       <c r="T24">
-        <v>0.0002531852334151882</v>
+        <v>0.0002588477119880813</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.2771763333333333</v>
+        <v>0.248809</v>
       </c>
       <c r="H25">
-        <v>0.831529</v>
+        <v>0.746427</v>
       </c>
       <c r="I25">
-        <v>0.01419593001942513</v>
+        <v>0.0134934305422948</v>
       </c>
       <c r="J25">
-        <v>0.01419593001942513</v>
+        <v>0.01349343054229481</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9458613333333333</v>
+        <v>0.3334263333333333</v>
       </c>
       <c r="N25">
-        <v>2.837584</v>
+        <v>1.000279</v>
       </c>
       <c r="O25">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="P25">
-        <v>0.6022667481975512</v>
+        <v>0.3592830996908513</v>
       </c>
       <c r="Q25">
-        <v>0.2621703762151111</v>
+        <v>0.08295947257033333</v>
       </c>
       <c r="R25">
-        <v>2.359533385936</v>
+        <v>0.7466352531329999</v>
       </c>
       <c r="S25">
-        <v>0.00854973661043917</v>
+        <v>0.004847961550698881</v>
       </c>
       <c r="T25">
-        <v>0.00854973661043917</v>
+        <v>0.004847961550698882</v>
       </c>
     </row>
   </sheetData>
